--- a/medicine/Enfance/Gladys_Mitchell/Gladys_Mitchell.xlsx
+++ b/medicine/Enfance/Gladys_Mitchell/Gladys_Mitchell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gladys Mitchell, née à Cowley (Oxfordshire) le 19 avril 1901 et morte à Corfe Mullen (Dorset) le 27 juillet 1983, est une écrivain britannique de roman policier.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père, un maraîcher d'ascendance écossaise de condition modeste, l'encourage à faire des études. Peu après l'obtention de son diplôme de l'University College de Londres, en 1921, elle occupe un poste de professeur, d'abord dans une école de Brentford jusqu'en 1925, puis à Ealing jusqu'en 1936. L'enseignement ne l'empêche pas de poursuivre en parallèle des études en histoire, en plus d'aborder l'écriture et la publication de romans policiers à partir de 1929 avec Speady Death, où apparaît son héroïne, Mrs. Bradley, conseillère en psychologie auprès de Scotland Yard.
 Célibataire, Gladys Mitchell reste néanmoins très impliquée dans sa communauté. Elle sera membre du Middlesex Education Association, de la British Olympic Association, de la Crime Writers' Association, fondée par John Creasey, du PEN club et de la Society of Authors. Intellectuellement fort curieuse, elle se passionne pour l'archéologie et l'architecture, étudie les théories de Sigmund Freud et s'intéresse à l'occultisme. Aussi l'histoire archéologique, les troubles de la personnalité et la magie sont-ils des thèmes récurrents qui distinguent ses romans policiers, souvent situés dans le milieu rural d'Angleterre, de la production courante de son temps. Ses pairs lui ont d'ailleurs manifesté très tôt leur reconnaissance, puisque Gladys Mitchell est invitée à faire partie du Detection Club dès 1933.
@@ -548,8 +562,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série policière Mrs. Bradley
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série policière Mrs. Bradley</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Speedy Death (1929)
 The Mystery of a Butcher's Shop (1929)
 The Longer Bodies (1930)
@@ -617,20 +640,132 @@
 No Winding Sheet (1984)
 The Crozier Pharaohs (1984)
 Sleuth's Alchemy (2005)
-Romans policiers signés Malcolm Torrie
-Heavy as Lead (1966)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gladys_Mitchell</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gladys_Mitchell</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Romans policiers signés Malcolm Torrie</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Heavy as Lead (1966)
 Late and Cold (1967)
 Your Secret Friend (1968)
 Churchyard Salad (1969)
 Shades of Darkness (1970)
-Bismarck Herrings (1971)
-Romans d'aventures signés Stephen Hockaby
-Marsh Hay (1933)
+Bismarck Herrings (1971)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gladys_Mitchell</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gladys_Mitchell</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Romans d'aventures signés Stephen Hockaby</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Marsh Hay (1933)
 Seven Stars and Orion (1934)
 Gabriel's Hold (1935)
 Shallow Brown (1936)
-Grand Master (1939)
-Nouvelles
+Grand Master (1939)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gladys_Mitchell</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gladys_Mitchell</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 The Case of the 100 Cats (1938)
 Daisy Bell (1940)
 Stranger's Hall (1950)
@@ -662,8 +797,43 @@
 Alibi (1953)
 The Vacuum Cleaner (1953)
 Arsenic in the House (1956)
-Ouvrages de littérature d'enfance et de jeunesse
-Outlaws of the Border (1936)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gladys_Mitchell</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gladys_Mitchell</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Outlaws of the Border (1936)
 The Three Fingerprints (1940)
 Holiday River (1948)
 The Seven Stones Mystery (1949)
@@ -675,31 +845,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Gladys_Mitchell</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Gladys_Mitchell</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>1951 : The Malory Secret, téléfilm britannique réalisé par Alan Bromly, d'après le roman pour enfants éponyme paru en 1950
 1998 : The Mrs. Bradley Mysteries, une série télévisée britannique, avec Diana Rigg dans le rôle-titre, constituée d'un téléfilm (90 min) et de 4 épisodes (60 min chacun), diffusés de 1998 à 2000 :
@@ -711,31 +883,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Gladys_Mitchell</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Gladys_Mitchell</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Claude Mesplède (dir.), Dictionnaire des littératures policières, vol. 2 : J - Z, Nantes, Joseph K, coll. « Temps noir », 2007, 1086 p. (ISBN 978-2-910-68645-1, OCLC 315873361), p. 367-368.</t>
         </is>
